--- a/T4/p10.xlsx
+++ b/T4/p10.xlsx
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +455,12 @@
         <v>-121969.34508701059</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>FV(0.12/12, 12*1, -800, 100000)</f>
+        <v>-102536.5006026394</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
